--- a/biology/Botanique/Tecticornia_arbuscula/Tecticornia_arbuscula.xlsx
+++ b/biology/Botanique/Tecticornia_arbuscula/Tecticornia_arbuscula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tecticornia arbuscula est une espèce d'arbustes de la famille des Chenopodiaceae, ou des Amaranthaceae selon la classification phylogénétique originaire d'Australie.
-Elle atteint 2 mètres de hauteur, avec un port en éventail. Elle a des rameaux succulents gonflés avec de toutes petites feuilles lobées[2],[3].
-On la trouve sur le littoral dans les zones côtières, les estuaires ou les marais salants, en particulier les marais soumis à inondation occasionnelle par l'océan. Elle a une répartition inégale selon les pays côtiers du Sud de l'Australie, se produisant dans le sud de l'Australie-Occidentale, Australie-Méridionale, Victoria, Nouvelle-Galles du Sud et Tasmanie[2],[3],[4].
-Publiée à l'origine par Robert Brown sous le nom de Salicornia arbuscula, elle a été transférée dans le genre Sclerostegia par Paul G. Wilson en 1980, avant d'être fusionnés dans le genre Tecticornia en 2007[5].
+Elle atteint 2 mètres de hauteur, avec un port en éventail. Elle a des rameaux succulents gonflés avec de toutes petites feuilles lobées,.
+On la trouve sur le littoral dans les zones côtières, les estuaires ou les marais salants, en particulier les marais soumis à inondation occasionnelle par l'océan. Elle a une répartition inégale selon les pays côtiers du Sud de l'Australie, se produisant dans le sud de l'Australie-Occidentale, Australie-Méridionale, Victoria, Nouvelle-Galles du Sud et Tasmanie.
+Publiée à l'origine par Robert Brown sous le nom de Salicornia arbuscula, elle a été transférée dans le genre Sclerostegia par Paul G. Wilson en 1980, avant d'être fusionnés dans le genre Tecticornia en 2007.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salicornia arbuscula R.Br.
 Arthrocnemum arbuscula (R. Br.) Moq.
